--- a/artfynd/A 57073-2023 artfynd.xlsx
+++ b/artfynd/A 57073-2023 artfynd.xlsx
@@ -1019,12 +1019,7 @@
         <v>103986830</v>
       </c>
       <c r="B5" t="n">
-        <v>78479</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>80221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1056,10 +1051,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>551092.7332501765</v>
+        <v>551093</v>
       </c>
       <c r="R5" t="n">
-        <v>7027429.498596773</v>
+        <v>7027429</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1089,19 +1084,9 @@
           <t>2022-09-20</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2022-09-20</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 57073-2023 artfynd.xlsx
+++ b/artfynd/A 57073-2023 artfynd.xlsx
@@ -1019,7 +1019,7 @@
         <v>103986830</v>
       </c>
       <c r="B5" t="n">
-        <v>80221</v>
+        <v>80222</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>

--- a/artfynd/A 57073-2023 artfynd.xlsx
+++ b/artfynd/A 57073-2023 artfynd.xlsx
@@ -1019,7 +1019,7 @@
         <v>103986830</v>
       </c>
       <c r="B5" t="n">
-        <v>80222</v>
+        <v>80221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1027,24 +1027,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Aspgelélav</t>
+          <t>Läderlappslav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Collema subnigrescens</t>
+          <t>Collema nigrescens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Degel.</t>
+          <t>(Huds.) DC.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Köttsjön, Jmt</t>
@@ -1093,8 +1096,9 @@
         <v>0</v>
       </c>
       <c r="AE5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
